--- a/media/Levels/Stage09/UpWallMap.xlsx
+++ b/media/Levels/Stage09/UpWallMap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erima\desktop\授業で手に入れたItems\2年後期製作\newwww\media\Levels\Stage09\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyush\Desktop\勉強\後期製作\Gチーム\media\Levels\Stage09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1363E3-C7CF-4E00-92E3-E0A25DC05A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643C24CA-0468-4465-9350-D5FA8CE12C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="540" windowWidth="17280" windowHeight="8880" xr2:uid="{75A79129-5593-4F02-8575-F4D7F19541D0}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{75A79129-5593-4F02-8575-F4D7F19541D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159AE2E0-0F10-440F-AB34-6051D71D5293}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
